--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3880784.248522936</v>
+        <v>3983581.668590592</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7196140.853933668</v>
+        <v>7162241.12366971</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>360.9830394292361</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56.93571561939934</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933838</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773061</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.7337232129118</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17.97462952150705</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>71.85993945080516</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>147.4560401914906</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>171.4887151406101</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>25.42854495127488</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>188.219639431212</v>
+        <v>61.03068881011993</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>114.3606976213223</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>23.80334160593427</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.13809394730832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>145.9348656155993</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8913819999787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>174.7517449752703</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>3.006892987834117</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>100.1755269486893</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5.640152769375668</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>71.39698738222812</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>21.69718571885169</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352489</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>138.534312581592</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695595</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972039</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>212.3267021497095</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265259</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>275.6685478670739</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>18.50276072357057</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1628.178203944121</v>
+        <v>1659.057359339776</v>
       </c>
       <c r="C2" t="n">
-        <v>1628.178203944121</v>
+        <v>1290.094842399364</v>
       </c>
       <c r="D2" t="n">
-        <v>1269.912505337371</v>
+        <v>931.8291437926139</v>
       </c>
       <c r="E2" t="n">
-        <v>884.1242527391264</v>
+        <v>546.0408911943696</v>
       </c>
       <c r="F2" t="n">
-        <v>473.1383479495188</v>
+        <v>135.054986404762</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>124.0229402901626</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008243</v>
+        <v>2045.657199403898</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2923.164777635402</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C4" t="n">
-        <v>2754.228594707495</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D4" t="n">
-        <v>2619.144025805564</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.23093222317</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877118</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877118</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877118</v>
       </c>
       <c r="W4" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877118</v>
       </c>
       <c r="X4" t="n">
-        <v>3325.605821609171</v>
+        <v>680.9641989518461</v>
       </c>
       <c r="Y4" t="n">
-        <v>3104.813242465641</v>
+        <v>460.171619808316</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3253.020024184116</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3047.042276568338</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3047.042276568338</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>3047.042276568338</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2694.273621298224</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="X5" t="n">
-        <v>2320.807863037144</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614562</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686095</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>846.071687106477</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508015</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986321</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4750,25 +4752,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>805.3711496350312</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>583.6045342045572</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>294.5016673302008</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302008</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302008</v>
+        <v>576.372060369826</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>576.372060369826</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>576.372060369826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926375</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030299</v>
+        <v>170.1561756069772</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.0279726153373</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>182.0279726153373</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>182.0279726153373</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>182.0279726153373</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>182.0279726153373</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>182.0279726153373</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>410.0175235133546</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>410.0175235133546</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W10" t="n">
-        <v>410.0175235133546</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X10" t="n">
-        <v>182.0279726153373</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.0279726153373</v>
+        <v>360.6423967967187</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2270.446169463826</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2270.446169463826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1981.370942808024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5752,22 @@
         <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>96.85392869224876</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6026,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>3198.117713678993</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>3029.181530751086</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3379.766178509233</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>339.5315467688215</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,13 +6964,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.493192213312</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>2834.086956247061</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2708.500263796382</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2585.117117175645</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2462.75711663939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>2949.801601912511</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3395.853105660665</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3837.304778337792</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4230.875860063897</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4547.593116654574</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4489.992508229213</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4294.92099021381</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4030.375710519665</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>3800.221169275434</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>3535.33394620013</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>3135.611710081896</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7494,13 +7496,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228666</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>72.64978773649554</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6.274541026374266</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>125.5341284403478</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>142.9753202488367</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>215.1260109543629</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>87.17534280744519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>74.19629618688154</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620608.5488928123</v>
+        <v>620608.5488928125</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>631029.9265235204</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>631029.9265235204</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631029.9265235204</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631029.9265235204</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631029.9265235204</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="N2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642833</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405241</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26439,25 +26441,25 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498543</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498548</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.4432349855</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287555</v>
+        <v>-709233.6605287557</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988373</v>
+        <v>619511.0851988378</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.085198837</v>
+        <v>619511.0851988371</v>
       </c>
       <c r="E6" t="n">
-        <v>364565.0240868519</v>
+        <v>364565.024086851</v>
       </c>
       <c r="F6" t="n">
+        <v>689977.4858942073</v>
+      </c>
+      <c r="G6" t="n">
+        <v>689977.4858942074</v>
+      </c>
+      <c r="H6" t="n">
+        <v>689977.4858942069</v>
+      </c>
+      <c r="I6" t="n">
         <v>689977.4858942071</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>472446.2834969296</v>
+      </c>
+      <c r="K6" t="n">
         <v>689977.4858942073</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>689977.4858942071</v>
       </c>
-      <c r="I6" t="n">
-        <v>689977.485894207</v>
-      </c>
-      <c r="J6" t="n">
-        <v>472446.2834969297</v>
-      </c>
-      <c r="K6" t="n">
-        <v>674412.492781752</v>
-      </c>
-      <c r="L6" t="n">
-        <v>693840.2107753829</v>
-      </c>
       <c r="M6" t="n">
-        <v>608785.1828398707</v>
+        <v>604922.4579586951</v>
       </c>
       <c r="N6" t="n">
-        <v>693840.210775384</v>
+        <v>689977.4858942073</v>
       </c>
       <c r="O6" t="n">
-        <v>693840.2107753825</v>
+        <v>689977.4858942073</v>
       </c>
       <c r="P6" t="n">
-        <v>689977.4858942071</v>
+        <v>689977.4858942069</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>49.93868622421735</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>237.6720487679211</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27524,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-1.733724275254644e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>14.88174980530056</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>207.7350258675301</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>37.32782233737068</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>222.2750604869785</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>8.343265041327214</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>164.340480380167</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>222.7020862222414</v>
+        <v>349.8910368433335</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>30.39431729299849</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>201.9063137831029</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>397.404981290037</v>
       </c>
       <c r="L12" t="n">
-        <v>577.7447198439388</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565753</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,22 +33268,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868051</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33974,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>528.6300513467554</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,16 +34216,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34445,19 +34447,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>259.563542315678</v>
       </c>
       <c r="L12" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127482</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034718</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,22 +37624,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>397.2883392634221</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37862,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3983581.668590592</v>
+        <v>3979569.058576599</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>60.48910589095414</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>56.93571561939934</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498689</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773061</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17.97462952150705</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>37.67709528776732</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>19.68942351146711</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>147.4560401914906</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.4887151406101</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.11884711289027</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>61.03068881011993</v>
+        <v>282.2148172862595</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>141.7614152959627</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23.80334160593427</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>83.06560892428251</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.9348656155993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>174.7517449752703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>100.1755269486893</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>5.640152769375668</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112825</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>71.39698738222812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>21.69718571885169</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>138.534312581592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695595</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>212.3267021497095</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>18.50276072357057</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1659.057359339776</v>
+        <v>1311.90978785544</v>
       </c>
       <c r="C2" t="n">
-        <v>1290.094842399364</v>
+        <v>942.9472709150284</v>
       </c>
       <c r="D2" t="n">
-        <v>931.8291437926139</v>
+        <v>584.681572308278</v>
       </c>
       <c r="E2" t="n">
-        <v>546.0408911943696</v>
+        <v>584.681572308278</v>
       </c>
       <c r="F2" t="n">
-        <v>135.054986404762</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>124.0229402901626</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993395</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649824</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379709</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="X2" t="n">
-        <v>2435.796531379709</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="Y2" t="n">
-        <v>2045.657199403898</v>
+        <v>1698.509627919562</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228009</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.171619808316</v>
+        <v>701.1808689801003</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>532.2446860521934</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372934</v>
@@ -4518,22 +4518,22 @@
         <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V4" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W4" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X4" t="n">
-        <v>680.9641989518461</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.171619808316</v>
+        <v>882.82933381034</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1340.24392931281</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>954.4556767145652</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>543.4697719249577</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>128.3973217699542</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792697</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614562</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686095</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106477</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>827.064395508015</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986321</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403.1511359853714</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4749,28 +4749,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>576.372060369826</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>576.372060369826</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="X7" t="n">
-        <v>576.372060369826</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.372060369826</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033352</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="D8" t="n">
-        <v>581.1420803965848</v>
+        <v>400.5199879482408</v>
       </c>
       <c r="E8" t="n">
-        <v>581.1420803965848</v>
+        <v>400.5199879482408</v>
       </c>
       <c r="F8" t="n">
-        <v>170.1561756069772</v>
+        <v>393.5744871990374</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4816,13 +4816,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.6423967967187</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967187</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>384.6861761966524</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>384.6861761966524</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,58 +5029,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452603</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>261.012762333092</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2270.446169463826</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2270.446169463826</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3198.117713678993</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3029.181530751086</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3379.766178509233</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155292</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>486.4214942667319</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>339.5315467688215</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6779,22 +6779,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1004.350546539543</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>783.5579673960132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>336.3048548543961</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.36835372228666</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.64978773649554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.274541026374266</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>125.5341284403478</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>142.9753202488367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>87.17534280744519</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>74.19629618688154</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9182872993607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642827</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405241</v>
+        <v>93596.74410405238</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26459,7 +26459,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287557</v>
+        <v>-709233.660528756</v>
       </c>
       <c r="C6" t="n">
         <v>619511.0851988378</v>
@@ -26530,40 +26530,40 @@
         <v>619511.0851988371</v>
       </c>
       <c r="E6" t="n">
-        <v>364565.024086851</v>
+        <v>364217.6448324949</v>
       </c>
       <c r="F6" t="n">
-        <v>689977.4858942073</v>
+        <v>689630.10663985</v>
       </c>
       <c r="G6" t="n">
-        <v>689977.4858942074</v>
+        <v>689630.10663985</v>
       </c>
       <c r="H6" t="n">
-        <v>689977.4858942069</v>
+        <v>689630.1066398503</v>
       </c>
       <c r="I6" t="n">
-        <v>689977.4858942071</v>
+        <v>689630.1066398502</v>
       </c>
       <c r="J6" t="n">
-        <v>472446.2834969296</v>
+        <v>472098.9042425727</v>
       </c>
       <c r="K6" t="n">
-        <v>689977.4858942073</v>
+        <v>689630.1066398501</v>
       </c>
       <c r="L6" t="n">
-        <v>689977.4858942071</v>
+        <v>689630.1066398503</v>
       </c>
       <c r="M6" t="n">
-        <v>604922.4579586951</v>
+        <v>604575.0787043383</v>
       </c>
       <c r="N6" t="n">
-        <v>689977.4858942073</v>
+        <v>689630.1066398501</v>
       </c>
       <c r="O6" t="n">
-        <v>689977.4858942073</v>
+        <v>689630.1066398502</v>
       </c>
       <c r="P6" t="n">
-        <v>689977.4858942069</v>
+        <v>689630.1066398501</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>346.3869398507573</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>237.6720487679211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.733724275254644e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>207.7350258675301</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>180.9075580643275</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>222.2750604869785</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.343265041327214</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>284.4041512237008</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>349.8910368433335</v>
+        <v>128.706908367194</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>38.07056488597459</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>201.9063137831029</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>397.404981290037</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565753</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33499,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,28 +34450,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>652.3203287778407</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>259.563542315678</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121309</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37147,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>520.9786166945074</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3979569.058576599</v>
+        <v>3981329.588879384</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60.48910589095414</v>
+        <v>60.48910589095144</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498689</v>
+        <v>166.5331836498662</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.67709528776732</v>
+        <v>37.67709528776619</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>19.68942351146711</v>
+        <v>19.68942351146622</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.11884711289027</v>
+        <v>2.118847112890157</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>282.2148172862595</v>
+        <v>282.2148172862599</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560552</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U13" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>260.4394343112825</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417088</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>1.799772605716196</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.90978785544</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150284</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D2" t="n">
-        <v>584.681572308278</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E2" t="n">
-        <v>584.681572308278</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939511</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794327</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180642</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919562</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919562</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4406,55 +4406,55 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158138</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801003</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521934</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
         <v>382.1280466398576</v>
@@ -4479,61 +4479,61 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962297</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.82933381034</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D5" t="n">
-        <v>1340.24392931281</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E5" t="n">
-        <v>954.4556767145652</v>
+        <v>954.4556767145643</v>
       </c>
       <c r="F5" t="n">
-        <v>543.4697719249577</v>
+        <v>543.4697719249568</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3973217699542</v>
+        <v>128.3973217699533</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4716,16 +4716,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,34 +4734,34 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
         <v>918.7467562092049</v>
@@ -4783,16 +4783,16 @@
         <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549913</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5199879482408</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="E8" t="n">
-        <v>400.5199879482408</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="F8" t="n">
-        <v>393.5744871990374</v>
+        <v>393.5744871990378</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,37 +4816,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
         <v>1514.348043559525</v>
@@ -4950,22 +4950,22 @@
         <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861248</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.29168600076</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794873</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757912</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598947</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163646</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,19 +5533,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5652,25 +5652,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5986,22 +5986,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,13 +6229,13 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192377</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111693</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="39">
@@ -7241,19 +7241,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7326,19 +7326,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U13" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>25.74504007796162</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620608.5488928123</v>
+        <v>620608.5488928125</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620608.5488928123</v>
+        <v>620608.5488928125</v>
       </c>
     </row>
     <row r="11">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
@@ -26349,7 +26349,7 @@
         <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405238</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26444,7 +26444,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26453,7 +26453,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.5839718921</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.660528756</v>
+        <v>-709233.6605287552</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988378</v>
+        <v>619511.085198837</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988371</v>
+        <v>619511.085198837</v>
       </c>
       <c r="E6" t="n">
-        <v>364217.6448324949</v>
+        <v>364530.2861614159</v>
       </c>
       <c r="F6" t="n">
-        <v>689630.10663985</v>
+        <v>689942.7479687713</v>
       </c>
       <c r="G6" t="n">
-        <v>689630.10663985</v>
+        <v>689942.7479687716</v>
       </c>
       <c r="H6" t="n">
-        <v>689630.1066398503</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="I6" t="n">
-        <v>689630.1066398502</v>
+        <v>689942.7479687715</v>
       </c>
       <c r="J6" t="n">
-        <v>472098.9042425727</v>
+        <v>472411.545571494</v>
       </c>
       <c r="K6" t="n">
-        <v>689630.1066398501</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="L6" t="n">
-        <v>689630.1066398503</v>
+        <v>689942.7479687716</v>
       </c>
       <c r="M6" t="n">
-        <v>604575.0787043383</v>
+        <v>604887.7200332595</v>
       </c>
       <c r="N6" t="n">
-        <v>689630.1066398501</v>
+        <v>689942.7479687715</v>
       </c>
       <c r="O6" t="n">
-        <v>689630.1066398502</v>
+        <v>689942.7479687716</v>
       </c>
       <c r="P6" t="n">
-        <v>689630.1066398501</v>
+        <v>689942.7479687714</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>346.3869398507573</v>
+        <v>346.38693985076</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.9075580643275</v>
+        <v>180.9075580643286</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>274.9183408758533</v>
+        <v>274.9183408758543</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>284.4041512237008</v>
+        <v>284.4041512237009</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>128.706908367194</v>
+        <v>128.7069083671935</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30234,10 +30234,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.604658557802081e-12</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014226</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
